--- a/Excels/collatz_steps 1 to 1024.xlsx
+++ b/Excels/collatz_steps 1 to 1024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1015"/>
+  <dimension ref="A1:B2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8545,6 +8545,8198 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>40</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>59</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>64</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>65</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>66</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>67</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>68</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>69</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>70</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>71</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>72</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>73</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>74</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>75</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>76</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>77</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>78</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>79</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>80</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>81</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>82</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>83</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>84</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>85</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>86</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>87</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>88</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>89</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>90</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>91</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>92</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>93</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>94</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>95</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>96</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>97</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>99</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>101</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>103</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>104</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>105</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>106</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>107</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>108</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>109</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>110</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>111</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>112</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>113</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>114</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>115</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>116</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>117</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>118</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>119</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>120</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>121</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>122</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>123</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>124</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>125</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>126</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>127</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>128</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>129</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>130</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>131</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>132</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>133</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>134</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>135</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>136</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>137</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>138</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>139</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>140</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>141</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>142</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>143</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>144</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>145</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>146</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>147</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>148</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>149</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>150</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>151</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>152</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>153</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>154</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>155</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>156</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>157</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>158</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>159</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>160</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>161</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>162</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>163</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>164</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>165</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>166</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>167</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>168</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>169</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>170</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>171</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>172</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>173</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>174</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>175</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>176</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>177</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>178</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>179</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>180</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>181</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>182</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>183</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>184</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>185</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>186</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>187</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>188</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>189</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>190</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>191</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>192</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>193</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>194</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>195</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>196</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>197</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>198</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>199</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>200</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>201</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>202</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>203</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>204</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>205</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>206</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>207</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>208</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>209</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>210</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>211</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>212</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>213</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>214</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>215</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>216</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>217</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>218</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>219</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>220</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>221</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>222</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>223</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>224</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>225</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>226</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>227</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>228</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>229</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>230</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>231</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>232</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>233</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>234</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>235</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>236</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>237</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>238</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>239</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>240</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>241</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>242</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>243</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>244</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>245</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>246</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>247</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>248</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>249</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>250</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>251</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>252</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>253</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>254</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>255</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>256</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>257</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>258</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>259</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>260</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>261</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>262</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>263</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>264</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>265</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>266</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>267</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>268</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>269</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>270</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>271</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>272</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>273</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>274</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>275</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>276</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>277</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>278</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>279</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>280</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>281</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>282</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>283</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>284</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>285</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>286</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>287</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>288</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>289</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>290</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>291</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>292</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>293</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>294</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>295</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>296</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>297</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>298</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>299</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>300</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>301</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>302</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>303</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>304</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>305</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>306</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>307</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>308</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>309</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>310</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>311</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>312</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>313</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>314</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>315</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>316</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>317</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>318</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>319</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>320</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>321</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>322</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>323</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>324</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>325</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>326</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>327</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>328</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>329</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>330</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>331</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>332</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>333</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>334</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>335</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>336</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>337</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>338</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>339</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>340</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>341</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>342</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>343</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>344</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>345</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>346</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>347</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>348</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>349</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>350</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>351</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>352</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>353</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>354</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>355</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>356</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>357</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>358</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>359</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>360</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>361</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>362</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>363</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>364</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>365</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>366</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>367</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>368</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>369</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>370</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>371</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>372</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>373</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>374</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>375</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>376</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>377</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>378</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>379</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>380</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>381</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>382</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>383</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>384</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>385</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>386</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>387</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>388</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>389</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>390</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>391</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>392</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>393</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>394</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>395</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>396</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>397</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>398</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>399</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>400</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>401</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>402</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>403</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>404</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>405</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>406</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>407</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>408</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>409</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>410</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>411</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>412</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>413</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>414</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>415</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>416</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>417</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>418</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>419</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>420</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>421</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>422</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>423</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>424</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>425</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>426</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>427</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>428</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>429</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>430</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>431</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>432</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>433</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>434</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>435</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>436</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>437</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>438</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>439</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>440</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>441</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>442</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>443</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>444</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>445</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>446</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>447</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>448</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>449</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>450</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>451</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>452</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>453</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>454</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>455</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>456</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>457</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>458</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>459</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>460</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>461</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>462</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>463</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>464</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>465</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>466</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>467</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>468</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>469</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>470</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>471</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>472</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>473</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>475</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>476</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>477</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>478</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>479</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>480</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>481</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>482</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>483</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>484</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>485</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>486</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>487</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>488</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>489</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>490</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>491</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>492</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>493</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>494</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>495</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>496</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>497</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>498</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>499</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>501</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>502</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>503</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>504</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>505</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>506</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>507</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>508</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>509</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>510</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>511</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>512</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>513</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>514</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>515</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>516</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>517</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>518</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>519</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>520</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>521</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>522</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>523</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>524</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>525</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>526</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>527</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>528</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>529</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>530</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>531</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>532</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>533</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>534</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>535</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>536</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>537</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>538</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>539</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>540</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>541</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>542</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>543</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>544</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>545</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>546</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>547</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>548</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>549</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>550</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>551</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>552</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>553</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>554</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>555</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>556</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>557</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>558</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>559</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>560</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>561</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>562</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>563</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>564</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>565</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>566</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>567</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>568</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>569</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>570</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>571</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>572</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>573</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>574</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>575</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>576</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>577</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>578</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>579</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>580</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>581</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>582</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>583</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>584</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>585</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>586</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>587</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>588</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>589</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>590</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>591</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>592</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>593</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>594</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>595</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>596</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>597</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>598</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>599</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>600</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>601</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>602</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>603</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>604</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>605</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>606</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>607</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>608</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>609</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>610</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>611</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>612</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>613</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>614</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>615</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>616</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>617</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>618</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>619</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>620</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>621</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>622</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>623</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>624</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>625</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>626</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>627</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>628</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>629</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>630</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>631</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>632</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>633</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>634</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>635</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>636</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>637</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>638</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>639</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>640</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>641</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>642</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>643</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>644</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>645</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>646</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>647</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>648</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>649</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>650</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>651</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>652</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>653</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>654</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>655</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>656</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>657</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>658</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>659</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>660</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>661</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>662</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>663</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>664</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>665</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>666</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>667</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>668</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>669</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>670</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>671</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>672</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>673</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>674</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>675</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>676</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>677</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>678</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>679</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>680</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>681</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>682</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>683</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>684</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>685</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>686</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>687</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>688</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>689</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>690</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>691</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>692</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>693</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>694</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>695</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>696</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>697</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>698</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>699</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>700</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>701</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>702</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>703</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>704</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>705</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>706</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>707</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>708</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>709</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>710</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>711</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>712</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>713</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>714</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>715</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>716</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>717</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>718</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>719</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>720</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>721</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>722</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>723</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>724</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>725</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>726</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>727</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>728</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>729</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>730</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>731</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>732</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>733</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>734</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>735</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>736</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>737</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>738</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>739</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>740</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>741</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>742</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>743</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>744</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>745</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>746</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>747</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>748</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>749</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>750</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>751</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>752</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>753</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>754</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>755</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>756</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>757</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>758</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>759</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>760</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>761</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>762</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>763</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>764</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>765</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>766</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>767</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>768</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>769</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>770</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>771</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>772</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>773</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>774</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>775</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>776</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>777</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>778</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>779</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>780</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>781</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>782</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>783</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>784</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>785</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>786</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>787</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>788</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>789</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>790</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>791</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>792</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>793</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>794</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>795</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>796</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>797</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>798</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>799</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>800</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>801</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>802</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>803</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>804</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>805</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>806</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>807</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>808</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>809</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>810</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>811</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>812</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>813</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>814</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>815</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>816</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>817</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>818</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>819</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>820</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>821</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>822</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>823</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>824</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>825</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>826</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>827</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>828</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>829</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>830</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>831</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>832</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>833</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>834</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>835</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>836</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>837</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>838</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>839</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>840</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>841</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>842</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>843</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>844</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>845</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>846</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>847</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>848</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>849</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>850</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>851</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>852</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>853</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>854</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>855</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>856</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>857</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>858</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>859</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>860</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>861</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>862</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>863</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>864</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>865</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>866</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>867</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>868</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>869</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>870</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>871</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>872</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>873</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>874</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>875</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>876</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>877</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>878</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>879</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>880</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>881</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>882</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>883</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>884</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>885</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>886</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>887</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>888</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>889</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>890</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>891</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>892</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>893</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>894</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>895</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>896</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>897</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>898</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>899</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>900</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>901</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>902</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>903</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>904</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>905</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>906</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>907</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>908</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>909</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>910</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>911</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>912</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>913</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>914</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>915</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>916</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>917</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>918</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>919</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>920</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>921</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>922</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>923</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>924</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>925</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>926</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>927</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>928</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>929</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>930</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>931</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>932</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>933</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>934</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>935</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>936</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>937</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>938</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>939</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>940</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>941</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>942</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>943</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>944</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>945</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>946</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>947</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>948</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>949</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>950</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>951</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>952</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>953</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>954</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>955</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>956</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>957</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>958</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>959</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>960</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>961</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>962</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>963</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>964</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>965</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>966</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>967</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>968</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>969</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>970</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>971</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>972</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>973</v>
+      </c>
+      <c r="B1988" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>974</v>
+      </c>
+      <c r="B1989" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>975</v>
+      </c>
+      <c r="B1990" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>976</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>977</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>978</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>979</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>980</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>981</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>982</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>983</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>984</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>985</v>
+      </c>
+      <c r="B2000" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>986</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>987</v>
+      </c>
+      <c r="B2002" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>988</v>
+      </c>
+      <c r="B2003" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>989</v>
+      </c>
+      <c r="B2004" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>990</v>
+      </c>
+      <c r="B2005" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>991</v>
+      </c>
+      <c r="B2006" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>992</v>
+      </c>
+      <c r="B2007" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>993</v>
+      </c>
+      <c r="B2008" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>994</v>
+      </c>
+      <c r="B2009" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>995</v>
+      </c>
+      <c r="B2010" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>996</v>
+      </c>
+      <c r="B2011" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>997</v>
+      </c>
+      <c r="B2012" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>998</v>
+      </c>
+      <c r="B2013" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>999</v>
+      </c>
+      <c r="B2014" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2015" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2016" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B2017" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B2018" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B2019" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B2020" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B2021" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B2022" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B2023" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B2024" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B2025" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B2026" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B2027" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B2028" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B2029" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B2030" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B2031" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B2032" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B2033" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B2034" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B2035" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B2036" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B2037" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B2038" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B2039" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
